--- a/root/packages/mpi/ballot-2023-may/StructureDefinition-ee-mpi-socialhistory-education-level.xlsx
+++ b/root/packages/mpi/ballot-2023-may/StructureDefinition-ee-mpi-socialhistory-education-level.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="611">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T09:50:45+03:00</t>
+    <t>2023-05-30T18:29:05+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -775,44 +775,13 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:coding}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
-    <t>Observation.category:obscat</t>
-  </si>
-  <si>
-    <t>obscat</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="social-history"/&gt;
-    &lt;display value="Social history"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>https://fhir.ee/ValueSet/ee-observation-category</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.id</t>
-  </si>
-  <si>
     <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -825,7 +794,7 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding</t>
+    <t>open</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -847,6 +816,10 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -856,19 +829,35 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.id</t>
+    <t>Observation.category.coding:obscat</t>
+  </si>
+  <si>
+    <t>obscat</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+  &lt;code value="social-history"/&gt;
+  &lt;display value="Social history"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>https://fhir.ee/ValueSet/ee-observation-category</t>
+  </si>
+  <si>
+    <t>Observation.category.coding:obscat.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.extension</t>
+    <t>Observation.category.coding:obscat.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.system</t>
+    <t>Observation.category.coding:obscat.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -898,7 +887,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.version</t>
+    <t>Observation.category.coding:obscat.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -922,7 +911,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.code</t>
+    <t>Observation.category.coding:obscat.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -950,7 +939,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.display</t>
+    <t>Observation.category.coding:obscat.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -974,7 +963,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.userSelected</t>
+    <t>Observation.category.coding:obscat.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -1003,9 +992,6 @@
   </si>
   <si>
     <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -4984,7 +4970,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -5048,14 +5034,16 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>233</v>
@@ -5076,7 +5064,7 @@
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>82</v>
@@ -5085,7 +5073,7 @@
         <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5093,14 +5081,12 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5109,10 +5095,10 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5121,26 +5107,22 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5158,11 +5140,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5180,25 +5164,25 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>82</v>
@@ -5207,7 +5191,7 @@
         <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5215,21 +5199,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5241,15 +5225,17 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5286,31 +5272,31 @@
         <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
@@ -5333,18 +5319,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -5356,21 +5342,23 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5406,19 +5394,17 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AC26" t="s" s="2">
         <v>255</v>
       </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5430,7 +5416,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5442,10 +5428,10 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5453,24 +5439,26 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
@@ -5479,26 +5467,26 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
@@ -5516,13 +5504,11 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5540,7 +5526,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5564,10 +5550,10 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -5575,10 +5561,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5693,10 +5679,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5766,16 +5752,16 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>190</v>
@@ -5813,10 +5799,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5842,23 +5828,23 @@
         <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -5900,7 +5886,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5924,10 +5910,10 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5935,10 +5921,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5964,13 +5950,13 @@
         <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6020,7 +6006,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6044,10 +6030,10 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -6055,10 +6041,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6084,14 +6070,14 @@
         <v>113</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6140,7 +6126,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6149,7 +6135,7 @@
         <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>105</v>
@@ -6164,10 +6150,10 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6175,10 +6161,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6204,14 +6190,14 @@
         <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6260,7 +6246,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6269,7 +6255,7 @@
         <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>105</v>
@@ -6284,10 +6270,10 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6295,10 +6281,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6321,19 +6307,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6382,7 +6368,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6406,10 +6392,10 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6417,10 +6403,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6446,16 +6432,16 @@
         <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6504,7 +6490,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6528,10 +6514,10 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6539,14 +6525,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6568,16 +6554,16 @@
         <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6602,13 +6588,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6626,7 +6612,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>93</v>
@@ -6635,36 +6621,36 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>206</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6779,10 +6765,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6852,16 +6838,16 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>190</v>
@@ -6899,10 +6885,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6910,10 +6896,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6925,19 +6911,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6974,17 +6960,17 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7008,10 +6994,10 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7019,13 +7005,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7047,19 +7033,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7108,7 +7094,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7132,10 +7118,10 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7143,10 +7129,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7261,10 +7247,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7334,16 +7320,16 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>190</v>
@@ -7381,10 +7367,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7410,23 +7396,23 @@
         <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>82</v>
@@ -7468,7 +7454,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7492,10 +7478,10 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7503,10 +7489,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7532,13 +7518,13 @@
         <v>182</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7588,7 +7574,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7612,10 +7598,10 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7623,10 +7609,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7652,21 +7638,21 @@
         <v>113</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
@@ -7708,7 +7694,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7717,7 +7703,7 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>105</v>
@@ -7732,10 +7718,10 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>82</v>
@@ -7743,10 +7729,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7772,21 +7758,21 @@
         <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7828,7 +7814,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7837,7 +7823,7 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>105</v>
@@ -7852,10 +7838,10 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>82</v>
@@ -7863,10 +7849,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7889,19 +7875,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7950,7 +7936,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7974,10 +7960,10 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -7985,13 +7971,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>82</v>
@@ -8013,19 +7999,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8074,7 +8060,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8098,10 +8084,10 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -8109,10 +8095,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8227,10 +8213,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8300,16 +8286,16 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>190</v>
@@ -8347,10 +8333,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8376,23 +8362,23 @@
         <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>82</v>
@@ -8434,7 +8420,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8458,10 +8444,10 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8469,10 +8455,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8498,13 +8484,13 @@
         <v>182</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8554,7 +8540,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8578,10 +8564,10 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8589,10 +8575,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8618,21 +8604,21 @@
         <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>82</v>
@@ -8674,7 +8660,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8683,7 +8669,7 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>105</v>
@@ -8698,10 +8684,10 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8709,10 +8695,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8738,21 +8724,21 @@
         <v>182</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>82</v>
@@ -8794,7 +8780,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8803,7 +8789,7 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>105</v>
@@ -8818,10 +8804,10 @@
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8829,10 +8815,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8855,19 +8841,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8916,7 +8902,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8940,10 +8926,10 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -8951,10 +8937,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8980,16 +8966,16 @@
         <v>182</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9038,7 +9024,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9062,10 +9048,10 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>82</v>
@@ -9073,10 +9059,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9099,19 +9085,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O57" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9160,7 +9146,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9175,19 +9161,19 @@
         <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>82</v>
@@ -9195,10 +9181,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9221,16 +9207,16 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9280,7 +9266,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9298,16 +9284,16 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9315,14 +9301,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9341,19 +9327,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O59" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9402,7 +9388,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9417,19 +9403,19 @@
         <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
@@ -9437,14 +9423,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9463,19 +9449,19 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9524,7 +9510,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9539,19 +9525,19 @@
         <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9559,10 +9545,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9585,16 +9571,16 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9644,7 +9630,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9662,16 +9648,16 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9679,10 +9665,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9705,17 +9691,17 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9764,7 +9750,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9779,19 +9765,19 @@
         <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -9799,10 +9785,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9828,16 +9814,16 @@
         <v>234</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9874,17 +9860,17 @@
         <v>82</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9893,7 +9879,7 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9905,27 +9891,27 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -9950,16 +9936,16 @@
         <v>234</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9988,7 +9974,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10006,7 +9992,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10015,7 +10001,7 @@
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -10027,24 +10013,24 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10070,16 +10056,16 @@
         <v>234</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10104,13 +10090,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10128,7 +10114,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10137,7 +10123,7 @@
         <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10155,7 +10141,7 @@
         <v>138</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
@@ -10163,14 +10149,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10192,16 +10178,16 @@
         <v>234</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10226,13 +10212,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10250,7 +10236,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10271,24 +10257,24 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10311,19 +10297,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10372,7 +10358,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10396,10 +10382,10 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10407,10 +10393,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10436,13 +10422,13 @@
         <v>234</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10468,13 +10454,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10492,7 +10478,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10501,7 +10487,7 @@
         <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>105</v>
@@ -10513,24 +10499,24 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10553,16 +10539,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10612,7 +10598,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10621,7 +10607,7 @@
         <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -10639,7 +10625,7 @@
         <v>82</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10647,10 +10633,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10676,16 +10662,16 @@
         <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10710,13 +10696,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10734,7 +10720,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10758,10 +10744,10 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -10769,10 +10755,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10795,16 +10781,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10854,7 +10840,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10866,33 +10852,33 @@
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>511</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10915,16 +10901,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10974,7 +10960,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10995,24 +10981,24 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11038,16 +11024,16 @@
         <v>178</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11096,7 +11082,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11108,7 +11094,7 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11120,10 +11106,10 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>82</v>
@@ -11131,10 +11117,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11249,10 +11235,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11369,10 +11355,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11491,10 +11477,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11517,13 +11503,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11574,7 +11560,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11583,7 +11569,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11598,10 +11584,10 @@
         <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11609,10 +11595,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11635,13 +11621,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11692,7 +11678,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11701,7 +11687,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11716,10 +11702,10 @@
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11727,10 +11713,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11756,10 +11742,10 @@
         <v>234</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11786,13 +11772,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11810,7 +11796,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11834,10 +11820,10 @@
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11845,10 +11831,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11874,16 +11860,16 @@
         <v>234</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11911,10 +11897,10 @@
         <v>239</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -11932,7 +11918,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11953,13 +11939,13 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -11967,10 +11953,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11996,16 +11982,16 @@
         <v>234</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12030,13 +12016,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12054,7 +12040,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12075,13 +12061,13 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -12089,10 +12075,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12115,17 +12101,17 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12174,7 +12160,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12201,7 +12187,7 @@
         <v>82</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>82</v>
@@ -12209,10 +12195,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12235,13 +12221,13 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12292,7 +12278,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12301,7 +12287,7 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12316,10 +12302,10 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>82</v>
@@ -12327,10 +12313,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12353,16 +12339,16 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12412,7 +12398,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12436,7 +12422,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>200</v>
@@ -12447,10 +12433,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12473,16 +12459,16 @@
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12532,7 +12518,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12556,10 +12542,10 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>82</v>
@@ -12567,10 +12553,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12596,16 +12582,16 @@
         <v>178</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12654,7 +12640,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12663,7 +12649,7 @@
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>105</v>
@@ -12678,10 +12664,10 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>82</v>
@@ -12689,10 +12675,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12807,10 +12793,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12927,10 +12913,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13049,10 +13035,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13078,16 +13064,16 @@
         <v>234</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13112,13 +13098,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13136,7 +13122,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>93</v>
@@ -13145,7 +13131,7 @@
         <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>105</v>
@@ -13154,13 +13140,13 @@
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>206</v>
@@ -13171,10 +13157,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13197,19 +13183,19 @@
         <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13258,7 +13244,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13279,24 +13265,24 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13322,16 +13308,16 @@
         <v>234</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13356,13 +13342,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13380,7 +13366,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13407,7 +13393,7 @@
         <v>138</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13415,14 +13401,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13444,16 +13430,16 @@
         <v>234</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13478,13 +13464,13 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13502,7 +13488,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13523,24 +13509,24 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13566,16 +13552,16 @@
         <v>82</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13624,7 +13610,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13648,10 +13634,10 @@
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>82</v>
